--- a/FHIR Resources Assignment.xlsx
+++ b/FHIR Resources Assignment.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harendra_pandey\Documents\FHIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\FHIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7764" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="Smita" sheetId="3" r:id="rId1"/>
+    <sheet name="Ankit" sheetId="2" r:id="rId2"/>
+    <sheet name="Vivek" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="alphabetical" localSheetId="0">Sheet3!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vivek!$A$1:$E$1</definedName>
+    <definedName name="alphabetical" localSheetId="1">Ankit!$A$1</definedName>
+    <definedName name="alphabetical" localSheetId="0">Smita!$A$1</definedName>
+    <definedName name="alphabetical" localSheetId="2">Vivek!$A$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,17 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="238">
   <si>
     <t>FHIR Resources/Maturity Levl</t>
   </si>
   <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Status (Done/Not Required)</t>
-  </si>
-  <si>
     <r>
       <t>Account</t>
     </r>
@@ -61,9 +60,6 @@
     </r>
   </si>
   <si>
-    <t>Smita</t>
-  </si>
-  <si>
     <r>
       <t>ActivityDefinition</t>
     </r>
@@ -947,9 +943,6 @@
     </r>
   </si>
   <si>
-    <t>Ankit</t>
-  </si>
-  <si>
     <r>
       <t>EligibilityResponse</t>
     </r>
@@ -1870,9 +1863,6 @@
     </r>
   </si>
   <si>
-    <t>Vivek</t>
-  </si>
-  <si>
     <r>
       <t>Parameters</t>
     </r>
@@ -1897,7 +1887,582 @@
   </si>
   <si>
     <r>
-      <t>Patient</t>
+      <t>PaymentNotice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PaymentReconciliation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PlanDefinition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Practitioner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PractitionerRole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Procedure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ProcedureRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ProcessRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ProcessResponse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Provenance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Questionnaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QuestionnaireResponse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ReferralRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RelatedPerson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RequestGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResearchStudy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResearchSubject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RiskAssessment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SearchParameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sequence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ServiceDefinition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Slot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Specimen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>StructureDefinition</t>
     </r>
     <r>
       <rPr>
@@ -1919,11 +2484,8 @@
     </r>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <r>
-      <t>PaymentNotice</t>
+    <r>
+      <t>StructureMap</t>
     </r>
     <r>
       <rPr>
@@ -1946,7 +2508,30 @@
   </si>
   <si>
     <r>
-      <t>PaymentReconciliation</t>
+      <t>Subscription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Substance</t>
     </r>
     <r>
       <rPr>
@@ -1969,7 +2554,53 @@
   </si>
   <si>
     <r>
-      <t>Person</t>
+      <t>SupplyDelivery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SupplyRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Task</t>
     </r>
     <r>
       <rPr>
@@ -1992,7 +2623,7 @@
   </si>
   <si>
     <r>
-      <t>PlanDefinition</t>
+      <t>TestScript</t>
     </r>
     <r>
       <rPr>
@@ -2015,72 +2646,144 @@
   </si>
   <si>
     <r>
-      <t>Practitioner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PractitionerRole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Procedure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
+      <t>TestReport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ValueSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VisionPrescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Brief Resource Description</t>
+  </si>
+  <si>
+    <t>Status/Comments 
+(Done/Not Required/Mapping Not Available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/2017Jan/person.html</t>
+  </si>
+  <si>
+    <t>An individual has identity outside of a healthcare setting. The Person resource is used to capture this information and to relate the person as an individual to other resources that do have a health-related context.
+For example, while a patient resource may be created and maintained by each organization providing care for that person as a patient, a person resource provides a mechanism for linking patient resources across different organizations and their unique patient identity domains.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/plandefinition.html</t>
+  </si>
+  <si>
+    <t>A plan definition is a pre-defined group of actions to be taken in particular circumstances, often including conditional elements, options, and other decision points. The resource is flexible enough to be used to represent a variety of workflows, as well as clinical decision support and quality improvement assets, including order sets, protocols, and decision support rules</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/practitioner-mappings.html</t>
+  </si>
+  <si>
+    <t>Practitioner covers all individuals who are engaged in the healthcare process and healthcare-related services as part of their formal responsibilities and this Resource is used for attribution of activities and responsibilities to these individuals. Practitioners include (but are not limited to):</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/practitionerrole-mappings.html</t>
+  </si>
+  <si>
+    <t>PractitionerRole covers the recording of the location and types of services that Practitioners are able to provide for an organization</t>
+  </si>
+  <si>
+    <t>Mapping Status</t>
+  </si>
+  <si>
+    <t>Task Status</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Profile Defined,Full Mapping Available</t>
+  </si>
+  <si>
+    <t>Profile Not Defined,Partial Mapping Available</t>
+  </si>
+  <si>
+    <t>Profile Not Defined,Full Mapping Available</t>
+  </si>
+  <si>
+    <t>Profile Defined, Partial Mapping Available</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/argonautproject/data-query/StructureDefinition-argo-procedure.html
+https://build.fhir.org/procedure-mappings.html</t>
+  </si>
+  <si>
+    <t>This resource is used to record the details of procedures performed on a patient. A procedure is an activity that is performed with or on a patient as part of the provision of care. Examples include surgical procedures, diagnostic procedures, endoscopic procedures, biopsies, counseling, physiotherapy, exercise, etc. Procedures may be performed by a healthcare professional, a friend or relative or in some cases by the patient themselves.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/procedurerequest-mappings.html</t>
   </si>
   <si>
     <r>
@@ -2088,676 +2791,350 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ProcessRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ProcessResponse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Provenance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Questionnaire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>QuestionnaireResponse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ReferralRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RelatedPerson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RequestGroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ResearchStudy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ResearchSubject</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RiskAssessment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Schedule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SearchParameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sequence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ServiceDefinition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Slot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Specimen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>StructureDefinition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>StructureMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Subscription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Substance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SupplyDelivery</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SupplyRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Task</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TestScript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TestReport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ValueSet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VisionPrescription</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>Brief Resource Description</t>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is a record of a request for a procedure to be planned, proposed, or performed, as distinguished by the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF005C00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProcedureRequest.intent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field value, with or on a patient. Examples of procedures include diagnostic tests/studies, endoscopic procedures, counseling, biopsies, therapies (e.g., physio-, social-, psychological-), (exploratory) surgeries or procedures, exercises, and other clinical interventions. Procedures may be performed by a healthcare professional, a friend or relative or in some cases by the patient themselves. </t>
+    </r>
+  </si>
+  <si>
+    <t>The ProcessRequest resource allows for the specification of an action to be performed on an existing resource or resources and then provides the additional supporting information to support that action. The actions currently defined are: cancel, poll, reprocess, and status.</t>
+  </si>
+  <si>
+    <t>Profile Not Defined,No Mapping Available</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Provenance of a resource is a record that describes entities and processes involved in producing and delivering or otherwise influencing that resource. Provenance provides a critical foundation for assessing authenticity, enabling trust, and allowing reproducibility</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/questionnaireresponse-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/questionnaire-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/referralrequest-mappings.html#v2</t>
+  </si>
+  <si>
+    <t>This resource is used to share relevant information required to support a referral request or a transfer of care request from one practitioner or organization to another. It is intended for use when a patient is required to be referred to another provider for a consultation/second opinion and/or for short term or longer term management of one or more health issues or problems.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/relatedperson-mappings.html#v2</t>
+  </si>
+  <si>
+    <t>RelatedPersons typically have a personal or non-healthcare-specific professional relationship to the patient. A RelatedPerson resource is primarily used for attribution of information, since RelatedPersons are often a source of information about the patient. For keeping information about people for contact purposes for a patient, use a Patient's Contact element. Some individuals may serve as both a Patient's Contact and a Related Person.</t>
+  </si>
+  <si>
+    <t>The RequestGroup resource is used to represent a group of optional activities that may be performed for a specific patient or context. This resource is often, but not always, the result of applying a specific PlanDefinition to a particular patient.</t>
+  </si>
+  <si>
+    <t>A process where a researcher or organization plans and then executes a series of steps intended to increase the field of healthcare-related knowledge.</t>
+  </si>
+  <si>
+    <t>This resource captures predicted outcomes for a patient or population on the basis of source information. Examples include:
+A prognosis statement for a particular condition
+Risk of health outcome (heart attack, particular type of cancer) on the basis of lifestyle factors and/or family history
+List of potential health risks based on a patient's genetic analysis
+A prediction of outbreak infection rates within a geography based on immunization rates</t>
+  </si>
+  <si>
+    <t>Schedule resources provide a container for time-slots that can be booked using an appointment. It provides the window of time (period) that slots are defined for and what type of appointments can be booked.</t>
+  </si>
+  <si>
+    <t>A search parameter that defines a named search item that can be used to search/filter on a resource.</t>
+  </si>
+  <si>
+    <t>Raw data describing a biological sequence.</t>
+  </si>
+  <si>
+    <t>The ServiceDefinition describes a unit of decision support functionality that is made available as a service, such as immunization modules or drug-drug interaction checking</t>
+  </si>
+  <si>
+    <t>Slot resources are used to provide time-slots that can be booked using an appointment. They do not provide any information about appointments that are available, just the time, and optionally what the time can be used for. These are effectively spaces of free/busy time.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/specimen-mappings.html</t>
+  </si>
+  <si>
+    <t>Any material sample:
+taken from a biological entity, living or dead
+taken from a physical object or the environment</t>
+  </si>
+  <si>
+    <t>A definition of a FHIR structure. This resource is used to describe the underlying resources, data types defined in FHIR, and also for describing extensions and constraints on resources and data types</t>
+  </si>
+  <si>
+    <t>This resource allows for a material to be represented. The resource can be used to represent either a kind of a substance - e.g. a formulation commonly used for treating patients, or it can be used to describe a particular package of a known substance (e.g. bottle, jar, packet).</t>
+  </si>
+  <si>
+    <t>Record of delivery of what is supplied</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/supplyrequest-mappings.html#v2</t>
+  </si>
+  <si>
+    <t>A record of a request for a medication, substance or device used in the healthcare setting.</t>
+  </si>
+  <si>
+    <t>A task resource describes an activity that can be performed and tracks the state of completion of that activity. It is a representation that an activity should be or has been initiated, and eventually, represents the successful or unsuccessful completion of that activity.</t>
+  </si>
+  <si>
+    <t>The TestScript resource is used to define tests that can be executed on one or more FHIR servers. The TestScript resource would typically contain
+ list of fixtures (required resources used in the tests)
+setup procedures
+a suite of thematically related tests
+teardown procedures</t>
+  </si>
+  <si>
+    <t>A summary of information based on the results of executing a TestScript.</t>
+  </si>
+  <si>
+    <t>A value set specifies a set of codes drawn from one or more code systems.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/visionprescription-mappings.html#v2</t>
+  </si>
+  <si>
+    <t>An authorization for the supply of glasses and/or contact lenses to a patient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://build.fhir.org/ig/argonautproject/data-query/StructureDefinition-argo-goal-mappings.html
+https://www.hl7.org/fhir/goal-mappings.html
+</t>
+  </si>
+  <si>
+    <t>Describes the intended objective(s) for a patient, group or organization care, for example, weight loss, restoring an activity of daily living, obtaining herd immunity via immunization, meeting a process improvement objective, etc.</t>
+  </si>
+  <si>
+    <t>A formal computable definition of a graph of resources - that is, a coherent set of resources that form a graph by following references. The Graph Definition resource defines a set and makes rules about the set</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/graphdefinition.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/group.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/guidanceresponse.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/healthcareservice.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/imagingmanifest.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/imagingstudy.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/implementationguide.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/library.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/linkage.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/list.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/location.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/measure.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/measurereport.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/messagedefinition.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/namingsystem.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/nutritionorder.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/operationdefinition.html</t>
+  </si>
+  <si>
+    <t>Represents a defined collection of entities that may be discussed or acted upon collectively but which are not expected to act collectively and are not formally or legally recognized; i.e. a collection of entities that isn't an Organization.</t>
+  </si>
+  <si>
+    <t>A guidance response is the formal response to a guidance request, including any output parameters returned by the evaluation, as well as the description of any proposed actions to be taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://build.fhir.org/ig/argonautproject/data-query/StructureDefinition-argo-immunization-mappings.html
+https://www.hl7.org/fhir/immunization-mappings.html
+</t>
+  </si>
+  <si>
+    <t>Describes the event of a patient being administered a vaccination or a record of a vaccination as reported by a patient, a clinician or another party and may include vaccine reaction information and what vaccination protocol was followed</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/argonautproject/data-query/StructureDefinition-argo-medication-mappings.html
+https://www.hl7.org/fhir/medication-mappings.html</t>
+  </si>
+  <si>
+    <t>A MedicationStatement may be used to record substance abuse or the use of other agents such as tobacco or alcohol. This would typically be done if these substances are intended to be inluded in clinical decision support checking (for example, interaction checking) and as part of an active medication list. If the intent is to populate social history and/or to include additional information (for example, desire to quit, amount per day, negative health effects), then it is better to record as an Observation that could then be used to populate Social History</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/argonautproject/data-query/StructureDefinition-argo-medicationstatement-mappings.html
+https://www.hl7.org/fhir/medicationstatement-mappings.html</t>
+  </si>
+  <si>
+    <t>Representing medications in the majority of healthcare settings is a matter of identifying an item from a list and then conveying a reference for the item selected either into a patient related resource or to other applications. Additional information about the medication is frequently provided for human verification, but a full representation of the details of composition and efficacy of the medicine is conveyed by referring to drug dictionaries by means of the codes they define. There are some occasions where it is necessary to identify slightly more detail, such as when dispensing a package containing a particular medicine requires identification both of the medicine and the package at once. There are also some occasions (e.g. custom formulations) where the composition of a medicine must be represented. In these cases the ingredients of the medicine have to be specified together with the amount contained, though the medication resource does not provide full details</t>
+  </si>
+  <si>
+    <t>Observations are a central element in healthcare, used to support diagnosis, monitor progress, determine baselines and patterns and even capture demographic characteristics. Most observations are simple name/value pair assertions with some metadata, but some observations group other observations together logically, or even are multi-component observations. Note that the DiagnosticReport resource provides a clinical or workflow context for a set of observations and the Observation resource is referenced by DiagnosticReport to represent lab, imaging, and other clinical and diagnostic data to form a complete report</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/argonautproject/data-query/StructureDefinition-argo-observationresults-mappings.html
+https://www.hl7.org/fhir/observation-mappings.html</t>
+  </si>
+  <si>
+    <t>This resource provides information on a selected set of imaging objects, along with information on how to retrieve those instances (either in native DICOM format, or in a rendered format, such as JPEG), or launch an image viewer. The ImagingManifest is used to make available information concerning images etc. that are intended to be exchanged into other clinical contexts such as diagnostic reports, Care Plans, etc</t>
+  </si>
+  <si>
+    <t>The HealthcareService resource is used to describe a single healthcare service or category of services that are provided by an organization at a location.
+ The location of the services could be virtual, as with TeleMedicine Services.</t>
+  </si>
+  <si>
+    <t>Representation of the content produced in a DICOM imaging study. A study comprises a set of series, each of which includes a set of Service-Object Pair Instances (SOP Instances - images or other data) acquired or produced in a common context. A series is of only one modality (e.g. X-ray, CT, MR, ultrasound), but a study may have multiple series of different modalities.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/immunizationrecommendation-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/media-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/medicationadministration-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/medicationdispense-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/medicationrequest-mappings.html</t>
+  </si>
+  <si>
+    <t>A patient's point-in-time immunization and recommendation (i.e. forecasting a patient's immunization eligibility according to a published schedule) with optional supporting justification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A set of rules of how FHIR is used to solve a particular problem. This resource is used to gather all the parts of an implementation guide into a logical whole and to publish a computable definition of all the parts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Library resource is a general-purpose container for knowledge asset definitions. It can be used to describe and expose existing knowledge assets such as logic libraries and information model descriptions, as well as to describe a collection of knowledge assets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies two or more records (resource instances) that are referring to the same real-world "occurrence". </t>
+  </si>
+  <si>
+    <t>A set of information summarized from a list of other resources.</t>
+  </si>
+  <si>
+    <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained or accommodated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Measure resource provides the definition of a quality measure. </t>
+  </si>
+  <si>
+    <t>The MeasureReport resource contains the results of evaluating a measure.</t>
+  </si>
+  <si>
+    <t>A photo, video, or audio recording acquired or used in healthcare. The actual content may be inline or provided by direct reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes the event of a patient consuming or otherwise being administered a medication. This may be as simple as swallowing a tablet or it may be a long running infusion. Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner. </t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/messageheader-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/operationoutcome-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/organization-mappings.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/paymentnotice-mappings.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates that a medication product is to be or has been dispensed for a named person/patient. This includes a description of the medication product (supply) provided and the instructions for administering the medication. The medication dispense is the result of a pharmacy system responding to a medication order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defines the characteristics of a message that can be shared between systems, including the type of event that initiates the message, the content to be transmitted and what response(s), if any, are permitted. </t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/parameters.html</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/paymentreconciliation.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The header for a message exchange that is either requesting or responding to an action. The reference(s) that are the subject of the action as well as other information related to the action are typically transmitted in a bundle in which the MessageHeader resource instance is the first resource in the bundle. </t>
+  </si>
+  <si>
+    <t>A curated namespace that issues unique symbols within that namespace for the identification of concepts, people, devices, etc. Represents a "System" used within the Identifier and Coding data types.</t>
+  </si>
+  <si>
+    <t>This resource is a request resource from a FHIR workflow perspective - see Workflow. It is the intent of the Orders and Observation Workgroup to align this resource with the workflow pattern for request resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A formal computable definition of an operation (on the RESTful interface) or a named query (using the search interaction). </t>
+  </si>
+  <si>
+    <t>A collection of error, warning or information messages that result from a system action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This resource may be used in a shared registry of contact and other information for various organizations or it can be used merely as a support for other resources that need to reference organizations, perhaps as a document, message or as a contained resource. If using a registry approach, it's entirely possible for multiple registries to exist, each dealing with different types or levels of organization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This special resource type is used to represent the operation request and response. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This resource provides the status of the payment for goods and services rendered, and the request and response resource references. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This resource provides payment details and claim references supporting a bulk payment. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2790,8 +3167,30 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005C00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2804,8 +3203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2828,11 +3233,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2845,8 +3262,34 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3125,1446 +3568,2115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" customWidth="1"/>
+    <col min="5" max="5" width="104.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A60">
+      <formula1>$A$51:$A$55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C42">
+      <formula1>$A$56:$A$58</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B42">
+      <formula1>$A$51:$A$54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34">
+      <formula1>$A$55:$A$59</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C34">
+      <formula1>$A$60:$A$62</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://build.fhir.org/ig/argonautproject/data-query/StructureDefinition-argo-goal-mappings.html_x000a_"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4" display="https://www.hl7.org/fhir/immunization-mappings.html_x000a_"/>
+    <hyperlink ref="E23" r:id="rId5" display="https://www.hl7.org/fhir/medicationstatement-mappings.html"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E20" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
+    <hyperlink ref="E22" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="E25" r:id="rId12"/>
+    <hyperlink ref="E26" r:id="rId13"/>
+    <hyperlink ref="E27" r:id="rId14"/>
+    <hyperlink ref="E29" r:id="rId15"/>
+    <hyperlink ref="E30" r:id="rId16"/>
+    <hyperlink ref="E32" r:id="rId17"/>
+    <hyperlink ref="E33" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+  <headerFooter differentOddEven="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="79.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B35:B42 B30 B24 B13:B14">
+      <formula1>$A$51:$A$54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42">
+      <formula1>$A$56:$A$58</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56 B31:B34 B25:B29 B15:B23 B8:B12">
+      <formula1>$A$51:$A$55</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="D15" r:id="rId2" display="https://www.hl7.org/fhir/plandefinition.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <headerFooter differentOddEven="1"/>
+</worksheet>
 </file>
--- a/FHIR Resources Assignment.xlsx
+++ b/FHIR Resources Assignment.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\FHIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\poc\fhir\Spring\docs\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7764" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="Smita" sheetId="3" r:id="rId1"/>
+    <sheet name="Smita" sheetId="4" r:id="rId1"/>
     <sheet name="Ankit" sheetId="2" r:id="rId2"/>
     <sheet name="Vivek" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -32,13 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="338">
   <si>
     <t>FHIR Resources/Maturity Levl</t>
   </si>
   <si>
     <r>
-      <t>Account</t>
+      <t>ActivityDefinition</t>
     </r>
     <r>
       <rPr>
@@ -61,7 +61,191 @@
   </si>
   <si>
     <r>
-      <t>ActivityDefinition</t>
+      <t>AllergyIntolerance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AdverseEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AuditEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Basic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Binary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BodySite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bundle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CapabilityStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CarePlan</t>
     </r>
     <r>
       <rPr>
@@ -84,7 +268,237 @@
   </si>
   <si>
     <r>
-      <t>AllergyIntolerance</t>
+      <t>CareTeam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ChargeItem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Claim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ClaimResponse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ClinicalImpression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CodeSystem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CommunicationRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CompartmentDefinition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Composition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ConceptMap</t>
     </r>
     <r>
       <rPr>
@@ -107,7 +521,154 @@
   </si>
   <si>
     <r>
-      <t>AdverseEvent</t>
+      <t>Condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> (aka Problem)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Consent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Contract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Coverage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DataElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DetectedIssue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DeviceRequest</t>
     </r>
     <r>
       <rPr>
@@ -130,7 +691,30 @@
   </si>
   <si>
     <r>
-      <t>Appointment</t>
+      <t>DeviceUseStatement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DiagnosticReport</t>
     </r>
     <r>
       <rPr>
@@ -153,7 +737,30 @@
   </si>
   <si>
     <r>
-      <t>AppointmentResponse</t>
+      <t>DocumentManifest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DocumentReference</t>
     </r>
     <r>
       <rPr>
@@ -176,145 +783,7 @@
   </si>
   <si>
     <r>
-      <t>AuditEvent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Basic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Binary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>BodySite</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bundle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CapabilityStatement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CarePlan</t>
+      <t>EligibilityRequest</t>
     </r>
     <r>
       <rPr>
@@ -337,7 +806,7 @@
   </si>
   <si>
     <r>
-      <t>CareTeam</t>
+      <t>EligibilityResponse</t>
     </r>
     <r>
       <rPr>
@@ -360,7 +829,7 @@
   </si>
   <si>
     <r>
-      <t>ChargeItem</t>
+      <t>EnrollmentRequest</t>
     </r>
     <r>
       <rPr>
@@ -383,7 +852,30 @@
   </si>
   <si>
     <r>
-      <t>Claim</t>
+      <t>EnrollmentResponse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF800000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF428BCA"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ExpansionProfile</t>
     </r>
     <r>
       <rPr>
@@ -406,7 +898,7 @@
   </si>
   <si>
     <r>
-      <t>ClaimResponse</t>
+      <t>ExplanationOfBenefit</t>
     </r>
     <r>
       <rPr>
@@ -429,53 +921,7 @@
   </si>
   <si>
     <r>
-      <t>ClinicalImpression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CodeSystem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Communication</t>
+      <t>FamilyMemberHistory</t>
     </r>
     <r>
       <rPr>
@@ -494,682 +940,6 @@
         <family val="2"/>
       </rPr>
       <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CommunicationRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CompartmentDefinition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Composition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ConceptMap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Condition</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> (aka Problem)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Consent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Contract</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Coverage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DataElement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DetectedIssue</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Device</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DeviceComponent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DeviceMetric</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DeviceRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DeviceUseStatement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DiagnosticReport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DocumentManifest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DocumentReference</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EligibilityRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EligibilityResponse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Encounter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EnrollmentRequest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EnrollmentResponse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EpisodeOfCare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ExpansionProfile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ExplanationOfBenefit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FamilyMemberHistory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Flag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF800000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF428BCA"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
     </r>
   </si>
   <si>
@@ -3129,12 +2899,344 @@
   <si>
     <t xml:space="preserve">This resource provides payment details and claim references supporting a bulk payment. </t>
   </si>
+  <si>
+    <t>FHIR Resources/Maturity Level</t>
+  </si>
+  <si>
+    <t>Account 2</t>
+  </si>
+  <si>
+    <t>A financial tool for tracking value accrued for a particular purpose. In the healthcare field, used to track charges for a patient, cost centers, etc.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/account.html</t>
+  </si>
+  <si>
+    <t>It is a shareable, consumable description of some activity to be performed. It may be used to specify actions to be taken as part of a workflow, order set, or protocol, or it may be used independently as part of a catalog of activities such as orderables.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/activitydefinition.html</t>
+  </si>
+  <si>
+    <t>A record of a clinical assessment of an allergy or intolerance; a propensity, or a potential risk to an individual, to have an adverse reaction on future exposure to the specified substance, or class of substance.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/allergyintolerance.html</t>
+  </si>
+  <si>
+    <t>This resource applies to events that occur during the course of medical care or medical research which may impact an individual as the recipient of care or the participant in a research study</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/adverseevent.html</t>
+  </si>
+  <si>
+    <t>Appointment 3</t>
+  </si>
+  <si>
+    <t>Appointment resources are used to provide information about a planned meeting that may be in the future or past. The resource only describes a single meeting, a series of repeating visits would require multiple appointment resources to be created for each instance.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/appointment.html</t>
+  </si>
+  <si>
+    <t>AppointmentResponse 3</t>
+  </si>
+  <si>
+    <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/appointmentresponse.html</t>
+  </si>
+  <si>
+    <t>A record of an event made for purposes of maintaining a security log. Typical uses include detection of intrusion attempts and monitoring for inappropriate usage.
+This resource is managed collaboratively between HL7, DICOM, and IHE.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/auditevent.html</t>
+  </si>
+  <si>
+    <t>Basic is used for handling concepts not yet defined in FHIR, narrative-only resources that don't map to an existing resource, and custom resources not appropriate for inclusion in the FHIR specification.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/basic.html</t>
+  </si>
+  <si>
+    <t>A binary resource can contain any content, whether text, image, pdf, zip archive, etc.
+Binary resources are used for handling content such as: CDA  Documents (i.e. with XDS), PDF Documents, Images.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/binary.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BodySite resource contains details about the anatomical location of a specimen or body part, including patient information, identifiers, as well as text descriptons and images. </t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/bodysite.html</t>
+  </si>
+  <si>
+    <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/bundle.html</t>
+  </si>
+  <si>
+    <t>A Capability Statement documents a set of capabilities (behaviors) of a FHIR Server that may be used as a statement of actual server functionality or a statement of required or desired server implementation.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/capabilitystatement.html</t>
+  </si>
+  <si>
+    <t>Describes the intention of how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/careplan.html</t>
+  </si>
+  <si>
+    <t>The Care Team resource includes all the people and/or organizations who plan to participate in the coordination and delivery of care for a patient. This is not limited to practitioners, but may include other caregivers such as family members, guardians, the patient themself, or others.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/careteam.html</t>
+  </si>
+  <si>
+    <t>The resource ChargeItem describes the provision of healthcare provider products for a certain patient, therefore referring not only to the product, but containing in addition details of the provision, like date, time, amounts and participating organizations and persons. Main Usage of the ChargeItem is to enable the billing process and internal cost allocation.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/chargeitem.html</t>
+  </si>
+  <si>
+    <t>A provider issued list of services and products provided, or to be provided, to a patient which is provided to an insurer for payment recovery.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/claim.html</t>
+  </si>
+  <si>
+    <t>The ClaimResponse resource provides application level error or application level adjudication results which are the result of processing a submitted Claim resource where that Claim may be which is the functional corollary of a Claim, Pre-Determination or a Pre-Authorization.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/claimresponse.html</t>
+  </si>
+  <si>
+    <t>An impression is a clinical summation of information and/or an opinion formed, which is the outcome of the clinical assessment process. The ClinicalImpression may lead to a statement of a Condition about a patient.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/clinicalimpression.html</t>
+  </si>
+  <si>
+    <t>A code system resource specifies a set of codes drawn from one or more code systems.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/codesystem.html</t>
+  </si>
+  <si>
+    <t>An occurrence of information being transmitted; e.g. an alert that was sent to a responsible provider, a public health agency was notified about a reportable condition.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/communication.html</t>
+  </si>
+  <si>
+    <t>A request to convey information; e.g. the CDS system proposes that an alert be sent to a responsible provider, the CDS system proposes that the public health agency be notified about a reportable condition.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/communicationrequest.html</t>
+  </si>
+  <si>
+    <t>A compartment definition that defines how resources are accessed on a server.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/compartmentdefinition.html</t>
+  </si>
+  <si>
+    <t>Profile Defined, No Mapping Available</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical document that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/composition.html</t>
+  </si>
+  <si>
+    <t>A statement of relationships from one set of concepts to one or more other concepts - either code systems or data elements, or classes in class models.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/conceptmap.html</t>
+  </si>
+  <si>
+    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/condition.html</t>
+  </si>
+  <si>
+    <t>A record of a healthcare consumer’s policy choices, which permits or denies identified recipient(s) or recipient role(s) to perform one or more actions within a given policy context, for specific purposes and periods of time.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/consent.html</t>
+  </si>
+  <si>
+    <t>A formal agreement between parties regarding the conduct of business, exchange of information or other matters.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/contract.html</t>
+  </si>
+  <si>
+    <t>Financial instrument which may be used to reimburse or pay for health care products and services.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/coverage.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataElement is an infrastructure resource that supports the defining individual pieces of data that might be collected or stored. </t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/dataelement.html</t>
+  </si>
+  <si>
+    <t>Indicates an actual or potential clinical issue with or between one or more active or proposed clinical actions for a patient; e.g. Drug-drug interaction, Ineffective treatment frequency, Procedure-condition conflict, etc.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/detectedissue.html</t>
+  </si>
+  <si>
+    <t>Device 2</t>
+  </si>
+  <si>
+    <t>This resource identifies an instance or a type of a manufactured item that is used in the provision of healthcare without being substantially changed through that activity.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/device.html</t>
+  </si>
+  <si>
+    <t>DeviceComponent 1</t>
+  </si>
+  <si>
+    <t>The characteristics, operational status and capabilities of a medical-related component of a medical device.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/devicecomponent.html</t>
+  </si>
+  <si>
+    <t>DeviceMetric 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DeviceMetric resource describes mandatory static properties that characterize a direct or derived, quantitative or qualitative biosignal measurement, setting, or calculation produced by a medical device. </t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/devicemetric.html</t>
+  </si>
+  <si>
+    <t>Represents a request for a patient to employ a medical device. The device may be an implantable device, or an external assistive device, such as a walker.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/devicerequest.html</t>
+  </si>
+  <si>
+    <t>A record of a device being used by a patient where the record is the result of a report from the patient or another clinician.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/deviceusestatement.html</t>
+  </si>
+  <si>
+    <t>The findings and interpretation of diagnostic tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/diagnosticreport.html</t>
+  </si>
+  <si>
+    <t>A collection of documents compiled for a purpose together with metadata that applies to the collection.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/documentmanifest.html</t>
+  </si>
+  <si>
+    <t>A DocumentReference resource is used to describe a document that is made available to a healthcare system. A document is some sequence of bytes that is identifiable, establishes its own context (e.g., what subject, author, etc. can be displayed to the user), and has defined update management</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/documentreference.html</t>
+  </si>
+  <si>
+    <t>The EligibilityRequest provides patient and insurance coverage information to an insurer for them to respond, in the form of an EligibilityResponse, with information regarding whether the stated coverage is valid and in-force and optionally to provide the insurance details of the policy.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/eligibilityrequest.html</t>
+  </si>
+  <si>
+    <t>The EligibilityResponse resource provides eligibility and plan details from the processing of an EligibilityRequest resource. It combines key information from a payor as to whether a Coverage is in-force, and optionally the nature of the Policy details.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/eligibilityresponse.html</t>
+  </si>
+  <si>
+    <t>Encounter 2</t>
+  </si>
+  <si>
+    <t>An interaction between a patient and healthcare provider(s) for the purpose of providing healthcare service(s) or assessing the health status of a patient.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/encounter.html</t>
+  </si>
+  <si>
+    <t>Endpoint 2</t>
+  </si>
+  <si>
+    <t>The technical details of an endpoint that can be used for electronic services, such as for web services providing XDS.b or a REST endpoint for another FHIR server. This may include any security context information.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/endpoint.html</t>
+  </si>
+  <si>
+    <t>This resource provides the insurance enrollment details to the insurer regarding a specified coverage.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/enrollmentrequest.html</t>
+  </si>
+  <si>
+    <t>This resource provides enrollment and plan details from the processing of an Enrollment resource.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/enrollmentresponse.html</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare 2</t>
+  </si>
+  <si>
+    <t>An association between a patient and an organization / healthcare provider(s) during which time encounters may occur. The managing organization assumes a level of responsibility for the patient during this time.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/episodeofcare.html</t>
+  </si>
+  <si>
+    <t>The purpose of the expansion profile is to allow a client that is using a terminology service to configure the behaviour of the terminology server in regard to how it builds expansions - and, in a similar manner, how it validates codes in value set.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/expansionprofile.html</t>
+  </si>
+  <si>
+    <t>This resource provides: the claim details; adjudication details from the processing of a Claim; and optionally account balance information, for informing the subscriber of the benefits provided.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/explanationofbenefit.html</t>
+  </si>
+  <si>
+    <t>Significant health events and conditions for a person related to the patient relevant in the context of care for the patient.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/familymemberhistory.html</t>
+  </si>
+  <si>
+    <t>Flag 1</t>
+  </si>
+  <si>
+    <t>A flag is a warning or notification of some sort presented to the user - who may be a clinician or some other person involve in patient care.</t>
+  </si>
+  <si>
+    <t>https://www.hl7.org/fhir/flag.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3185,6 +3287,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF005C00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3249,7 +3359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3287,6 +3397,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3568,496 +3682,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="64.21875" customWidth="1"/>
-    <col min="3" max="3" width="47.21875" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="18"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="18"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="18"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="18"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="18"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="18"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="18"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
     </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B50">
+      <formula1>$A$71:$A$76</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A77">
+      <formula1>$A$51:$A$55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
+      <formula1>$A$77:$A$79</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+    <hyperlink ref="E6" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E15" r:id="rId10"/>
+    <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E17" r:id="rId12"/>
+    <hyperlink ref="E16" r:id="rId13"/>
+    <hyperlink ref="E18" r:id="rId14"/>
+    <hyperlink ref="E19" r:id="rId15"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E21" r:id="rId17"/>
+    <hyperlink ref="E22" r:id="rId18"/>
+    <hyperlink ref="E23" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="E25" r:id="rId21"/>
+    <hyperlink ref="E26" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E28" r:id="rId24"/>
+    <hyperlink ref="E29" r:id="rId25"/>
+    <hyperlink ref="E30" r:id="rId26"/>
+    <hyperlink ref="E31" r:id="rId27"/>
+    <hyperlink ref="E32" r:id="rId28"/>
+    <hyperlink ref="E33" r:id="rId29"/>
+    <hyperlink ref="E34" r:id="rId30"/>
+    <hyperlink ref="E35" r:id="rId31"/>
+    <hyperlink ref="E36" r:id="rId32"/>
+    <hyperlink ref="E37" r:id="rId33"/>
+    <hyperlink ref="E38" r:id="rId34"/>
+    <hyperlink ref="E39" r:id="rId35"/>
+    <hyperlink ref="E40" r:id="rId36"/>
+    <hyperlink ref="E41" r:id="rId37"/>
+    <hyperlink ref="E42" r:id="rId38"/>
+    <hyperlink ref="E43" r:id="rId39"/>
+    <hyperlink ref="E44" r:id="rId40"/>
+    <hyperlink ref="E45" r:id="rId41"/>
+    <hyperlink ref="E46" r:id="rId42"/>
+    <hyperlink ref="E47" r:id="rId43"/>
+    <hyperlink ref="E48" r:id="rId44"/>
+    <hyperlink ref="E49" r:id="rId45"/>
+    <hyperlink ref="E50" r:id="rId46"/>
+    <hyperlink ref="E2" r:id="rId47"/>
+    <hyperlink ref="E3" r:id="rId48"/>
+    <hyperlink ref="E4" r:id="rId49"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
   <headerFooter differentOddEven="1"/>
 </worksheet>
 </file>
@@ -4066,763 +4780,763 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.44140625" customWidth="1"/>
-    <col min="5" max="5" width="104.88671875" customWidth="1"/>
+    <col min="4" max="4" width="72.42578125" customWidth="1"/>
+    <col min="5" max="5" width="104.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="6" t="s">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    <row r="28" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="6" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
     </row>
   </sheetData>
@@ -4877,785 +5591,785 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" customWidth="1"/>
-    <col min="5" max="5" width="79.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
+    <col min="5" max="5" width="79.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E6" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="E20" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="E23" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="25" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="E25" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
     </row>
   </sheetData>

--- a/FHIR Resources Assignment.xlsx
+++ b/FHIR Resources Assignment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\poc\fhir\Spring\docs\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\124613\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3684,9 +3684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3821,7 +3819,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>120</v>
@@ -4780,9 +4778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/FHIR Resources Assignment.xlsx
+++ b/FHIR Resources Assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\124613\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\CLONE\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Smita" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Vivek" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vivek!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vivek!$A$1:$E$35</definedName>
     <definedName name="alphabetical" localSheetId="1">Ankit!$A$1</definedName>
     <definedName name="alphabetical" localSheetId="0">Smita!$A$1</definedName>
     <definedName name="alphabetical" localSheetId="2">Vivek!$A$1</definedName>
@@ -3684,18 +3684,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.28515625" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.26953125" customWidth="1"/>
+    <col min="5" max="5" width="47.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>228</v>
       </c>
@@ -3712,7 +3714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>229</v>
       </c>
@@ -3729,7 +3731,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3746,7 +3748,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3780,7 +3782,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>238</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>241</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -3865,7 +3867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -3882,7 +3884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -3899,7 +3901,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3967,7 +3969,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -4001,7 +4003,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -4086,7 +4088,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -4222,7 +4224,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>293</v>
       </c>
@@ -4239,7 +4241,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>296</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>299</v>
       </c>
@@ -4273,7 +4275,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>32</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>316</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>319</v>
       </c>
@@ -4426,7 +4428,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>326</v>
       </c>
@@ -4477,7 +4479,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
@@ -4494,7 +4496,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>38</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>335</v>
       </c>
@@ -4545,164 +4547,164 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="18"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="18"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="18"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="18"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="18"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
       <c r="B56" s="18"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
       <c r="B57" s="18"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="18"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="18"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
       <c r="B60" s="18"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="18"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
       <c r="B62" s="18"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
       <c r="B63" s="18"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
       <c r="B64" s="18"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
       <c r="B65" s="18"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
       <c r="B66" s="18"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
       <c r="B67" s="18"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
       <c r="B68" s="18"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="18"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
     </row>
   </sheetData>
@@ -4780,16 +4782,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.42578125" customWidth="1"/>
-    <col min="5" max="5" width="104.85546875" customWidth="1"/>
+    <col min="4" max="4" width="72.453125" customWidth="1"/>
+    <col min="5" max="5" width="104.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -4823,7 +4825,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -4857,7 +4859,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -4976,7 +4978,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
@@ -5027,7 +5029,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>64</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -5299,7 +5301,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
@@ -5316,7 +5318,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
@@ -5333,7 +5335,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -5367,172 +5369,172 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
     </row>
   </sheetData>
@@ -5583,20 +5585,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1796875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" customWidth="1"/>
-    <col min="5" max="5" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7265625" customWidth="1"/>
+    <col min="5" max="5" width="79.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +5615,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>73</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>111</v>
@@ -5630,7 +5632,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>74</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>113</v>
@@ -5647,7 +5649,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>75</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>115</v>
@@ -5664,7 +5666,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>76</v>
       </c>
@@ -5672,7 +5674,7 @@
         <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>117</v>
@@ -5681,7 +5683,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>77</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>128</v>
@@ -5698,7 +5700,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>78</v>
       </c>
@@ -5706,7 +5708,7 @@
         <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>130</v>
@@ -5715,7 +5717,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>79</v>
       </c>
@@ -5732,7 +5734,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>80</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>81</v>
       </c>
@@ -5764,7 +5766,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>82</v>
       </c>
@@ -5779,7 +5781,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>83</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>84</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>138</v>
@@ -5811,7 +5813,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>85</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>140</v>
@@ -5828,7 +5830,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>86</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>87</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>88</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>89</v>
       </c>
@@ -5896,7 +5898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>90</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>91</v>
       </c>
@@ -5930,7 +5932,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>92</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>93</v>
       </c>
@@ -5964,7 +5966,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>94</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>95</v>
       </c>
@@ -5989,7 +5991,7 @@
         <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>150</v>
@@ -5998,7 +6000,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>96</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>97</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>98</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="21.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>99</v>
       </c>
@@ -6064,7 +6066,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>100</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>101</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>155</v>
@@ -6098,7 +6100,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>102</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>103</v>
       </c>
@@ -6132,7 +6134,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>104</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>105</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>106</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>161</v>
@@ -6183,193 +6185,193 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="12"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E35"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B35:B42 B30 B24 B13:B14">
       <formula1>$A$51:$A$54</formula1>

--- a/FHIR Resources Assignment.xlsx
+++ b/FHIR Resources Assignment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\137291\Desktop\FHIR-Translator\CLONE\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTT\FHIR\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Smita" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Vivek" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ankit!$A$1:$E$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Vivek!$A$1:$E$35</definedName>
     <definedName name="alphabetical" localSheetId="1">Ankit!$A$1</definedName>
     <definedName name="alphabetical" localSheetId="0">Smita!$A$1</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="338">
   <si>
     <t>FHIR Resources/Maturity Levl</t>
   </si>
@@ -4780,7 +4781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4816,7 +4819,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>163</v>
@@ -4833,7 +4836,7 @@
         <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>164</v>
@@ -4850,7 +4853,7 @@
         <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>182</v>
@@ -4867,7 +4870,7 @@
         <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>183</v>
@@ -4884,7 +4887,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>193</v>
@@ -4901,7 +4904,7 @@
         <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>192</v>
@@ -4918,7 +4921,7 @@
         <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>194</v>
@@ -4935,7 +4938,7 @@
         <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>185</v>
@@ -4952,7 +4955,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>200</v>
@@ -4969,7 +4972,7 @@
         <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>201</v>
@@ -4986,7 +4989,7 @@
         <v>132</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>202</v>
@@ -5003,7 +5006,7 @@
         <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>203</v>
@@ -5020,7 +5023,7 @@
         <v>132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>204</v>
@@ -5037,7 +5040,7 @@
         <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>205</v>
@@ -5054,7 +5057,7 @@
         <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>206</v>
@@ -5071,7 +5074,7 @@
         <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>207</v>
@@ -5088,7 +5091,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>208</v>
@@ -5105,7 +5108,7 @@
         <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>189</v>
@@ -5122,7 +5125,7 @@
         <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>209</v>
@@ -5173,7 +5176,7 @@
         <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>187</v>
@@ -5190,7 +5193,7 @@
         <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>216</v>
@@ -5207,7 +5210,7 @@
         <v>124</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>219</v>
@@ -5224,7 +5227,7 @@
         <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>220</v>
@@ -5241,7 +5244,7 @@
         <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>221</v>
@@ -5258,7 +5261,7 @@
         <v>126</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>190</v>
@@ -5275,7 +5278,7 @@
         <v>132</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>222</v>
@@ -5292,7 +5295,7 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>223</v>
@@ -5309,7 +5312,7 @@
         <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>224</v>
@@ -5326,7 +5329,7 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>225</v>
@@ -5343,7 +5346,7 @@
         <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>226</v>
@@ -5360,7 +5363,7 @@
         <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>227</v>
@@ -5502,7 +5505,9 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
+      <c r="A63" s="7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
@@ -5538,12 +5543,10 @@
       <c r="A74" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <autoFilter ref="A1:E34"/>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A60">
       <formula1>$A$51:$A$55</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C42">
-      <formula1>$A$56:$A$58</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35:B42">
       <formula1>$A$51:$A$54</formula1>
@@ -5552,7 +5555,7 @@
       <formula1>$A$55:$A$59</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C34">
-      <formula1>$A$60:$A$62</formula1>
+      <formula1>$A$60:$A$63</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -5585,8 +5588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
